--- a/Wine_Quality/outputs/train_80_test_20/depth_5/wq_train_80_test_20_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_5/wq_train_80_test_20_depth_5_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5755813953488372</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.38671875</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4626168224299065</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7963875205254516</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9748743718592965</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87663804789878</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6707317073170732</v>
+        <v>0.8188277087033747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21484375</v>
+        <v>0.9266331658291457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3254437869822485</v>
+        <v>0.8694012258368694</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4890397426141749</v>
+        <v>0.6314697013507374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3965727072864322</v>
+        <v>0.4445866930314839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4006939449603428</v>
+        <v>0.4570779115137619</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.741625307689227</v>
+        <v>0.7589095441301232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7350526670205705</v>
+        <v>0.7580043806747632</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_5/wq_train_80_test_20_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_5/wq_train_80_test_20_depth_5_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5755813953488372</v>
+        <v>0.58</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38671875</v>
+        <v>0.39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4626168224299065</v>
+        <v>0.46</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -484,10 +484,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.04</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8188277087033747</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9266331658291457</v>
+        <v>0.93</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8694012258368694</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7861538461538462</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7861538461538462</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7861538461538462</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6314697013507374</v>
+        <v>0.63</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4445866930314839</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4570779115137619</v>
+        <v>0.46</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7589095441301232</v>
+        <v>0.76</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7580043806747632</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
